--- a/biology/Botanique/Troène/Troène.xlsx
+++ b/biology/Botanique/Troène/Troène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne</t>
+          <t>Troène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ligustrum
 Ligustrum (les troènes) est un genre de plantes dicotylédones de la famille des Oleaceae, originaire d'Eurasie et d'Afrique du Nord, qui comprend une cinquantaine d'espèces.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne</t>
+          <t>Troène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (1 juin 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 juin 2018) :
 Ligustrum angustum B.M.Miao
 Ligustrum australianum F.Muell.,  troène d'Australie
 Ligustrum compactum (Wall. ex G.Don) Hook.f. &amp; Thomson ex Brandis (Himalaya, sud-ouest Chine)
@@ -569,7 +583,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne</t>
+          <t>Troène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,9 +601,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom commun troène remonte à l’ancien français troine (XIIe s.), altéré (d'après chêne, frêne) d’un troile[4] (cf. poitevin troulle, lorrain troille, wallon trôye), emprunté à l’ancien haut-francique trugil « bois dur ; auget », trugilboum, harttrugil « troène ; cornouiller », conservé en allemand régional Trögel, Trügel, au sens de « auget, coffret », et Hartriegel « cornouiller ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom commun troène remonte à l’ancien français troine (XIIe s.), altéré (d'après chêne, frêne) d’un troile (cf. poitevin troulle, lorrain troille, wallon trôye), emprunté à l’ancien haut-francique trugil « bois dur ; auget », trugilboum, harttrugil « troène ; cornouiller », conservé en allemand régional Trögel, Trügel, au sens de « auget, coffret », et Hartriegel « cornouiller ».
 Le nom générique, « Ligustrum », est le nom latin du troène. Ce terme dérive du verbe ligare « lier », car ses tiges flexibles servaient à faire des liens.
 </t>
         </is>
@@ -601,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne</t>
+          <t>Troène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,13 +635,15 @@
           <t>Consommateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles des papillons de nuit (hétérocères) suivants se nourrissent de troène :
 bois-sec, Xylena exsoleta
 noctuelle cuivrée, Amphipyra pyramidea (Noctuidae).
 Parmi les Sphingidae, le Sphinx du Troène, Sphinx ligustri L., se nourrit entre autres de Troène.
-Chez les Geometridae, l’Ennomos du Lilas, Apeira syringaria[5] L. la Phalène du Sureau, Ourapteryx Sambucaria L., la Boarmie pétrifiée, Menophra abruptaria et la Boarmie rhomboïdale, Peribatodes Rhomboidaria, la Phalène du Marronnier d’Inde Alsophila Aescularia, et la Larentie verdâtre, Acassis Viretata, consomment entre autres du Troène.
+Chez les Geometridae, l’Ennomos du Lilas, Apeira syringaria L. la Phalène du Sureau, Ourapteryx Sambucaria L., la Boarmie pétrifiée, Menophra abruptaria et la Boarmie rhomboïdale, Peribatodes Rhomboidaria, la Phalène du Marronnier d’Inde Alsophila Aescularia, et la Larentie verdâtre, Acassis Viretata, consomment entre autres du Troène.
 </t>
         </is>
       </c>
@@ -636,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne</t>
+          <t>Troène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,9 +672,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le troène peut être mortel en cas d'ingestion de feuilles (chevaux, ruminants)[6] ou de baies (chien, enfants). La mort peut survenir quelques heures après l'ingestion[7],[8]. Cet arbuste est un neurotoxique (convulsivant) et un entérotoxique (diarrhée) du fait qu'il renferme un hétéroside, la ligustrine. Il renfermerait aussi des saponosides. Chez l'enfant, l'ingestion de 30 baies entraîne une intoxication grave, les baies noires sont attirantes pour les enfants, elles sont confondues avec des myrtilles.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le troène peut être mortel en cas d'ingestion de feuilles (chevaux, ruminants) ou de baies (chien, enfants). La mort peut survenir quelques heures après l'ingestion,. Cet arbuste est un neurotoxique (convulsivant) et un entérotoxique (diarrhée) du fait qu'il renferme un hétéroside, la ligustrine. Il renfermerait aussi des saponosides. Chez l'enfant, l'ingestion de 30 baies entraîne une intoxication grave, les baies noires sont attirantes pour les enfants, elles sont confondues avec des myrtilles.
 </t>
         </is>
       </c>
@@ -667,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne</t>
+          <t>Troène</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,9 +705,11 @@
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces de troènes se sont révélées invasives dans des régions d'Amérique du Nord et d'Australie où elles ont été introduites[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de troènes se sont révélées invasives dans des régions d'Amérique du Nord et d'Australie où elles ont été introduites.
 </t>
         </is>
       </c>
@@ -698,7 +720,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne</t>
+          <t>Troène</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,9 +738,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le calendrier républicain, le Troène était le nom attribué au 4e jour du mois de ventôse[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, le Troène était le nom attribué au 4e jour du mois de ventôse.
 </t>
         </is>
       </c>
